--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23911"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Desktop\Facultate\An 3 Semestrul 2\VVSS\mrir2562\Docs\Lab01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{B51D9049-0096-4D97-85B6-1E38FF02C6D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{042A7A63-0840-4611-8F1E-873799059DBB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -12,25 +18,75 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="125">
+  <si>
+    <t>do not print this form</t>
+  </si>
+  <si>
+    <t>Echipa</t>
+  </si>
+  <si>
+    <t>Review Form. Requirements Defects</t>
+  </si>
+  <si>
+    <t>Numele si prenumele</t>
+  </si>
+  <si>
+    <t>Grupa</t>
+  </si>
+  <si>
+    <t>Student 1:</t>
+  </si>
+  <si>
+    <t>Moldovan Dragos</t>
+  </si>
   <si>
     <t>Document  Title:</t>
   </si>
   <si>
+    <t>Requirements Document</t>
+  </si>
+  <si>
+    <t>Student 2:</t>
+  </si>
+  <si>
+    <t>Moldovan Rares</t>
+  </si>
+  <si>
+    <t>Author Name:</t>
+  </si>
+  <si>
+    <t>Firicescu George</t>
+  </si>
+  <si>
+    <t>Student 3:</t>
+  </si>
+  <si>
+    <t>Pascu Vlad</t>
+  </si>
+  <si>
+    <t>Reviewer Name:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Review date: </t>
   </si>
   <si>
-    <t>Reviewer Name:</t>
-  </si>
-  <si>
-    <t>do not print this form</t>
-  </si>
-  <si>
     <t>Crt. No.</t>
   </si>
   <si>
@@ -43,76 +99,322 @@
     <t>Comments/ improvements</t>
   </si>
   <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>pag. 1 / linia 1</t>
+  </si>
+  <si>
+    <t>Nu este prezentat specificul/domeniul/industria companiei de productie</t>
+  </si>
+  <si>
+    <t>RO1</t>
+  </si>
+  <si>
+    <t>pag. 1 / linia 2</t>
+  </si>
+  <si>
+    <t>Nu este specificat formatul din care din care sunt preluate elementele (ex. csv/tsv/etc.) si nici structura acestora (relatia 1-m intre produs-piese)</t>
+  </si>
+  <si>
+    <t>RO2</t>
+  </si>
+  <si>
+    <t>pag. 1 / linia 3 &amp; 7</t>
+  </si>
+  <si>
+    <t>Nu se specifica comportamentul in cazurile de field-uri invalide (ex. denumire vida, nrBucati de tip string invalid:"asdf", etc). Sol: Arunca eroare cu mesajul campului gresit</t>
+  </si>
+  <si>
+    <t>pag. 1 / linia 17 &amp; 18</t>
+  </si>
+  <si>
+    <t>Nu se specifica in functie de ce camp se va stergerea unui produs/piesa.</t>
+  </si>
+  <si>
+    <t>RO7</t>
+  </si>
+  <si>
+    <t>Nu este specificat tipul aplicatiei (web, mobila, desktop), tehnologiile in care va fi scrisa si nici modul in care va fi gazduita.</t>
+  </si>
+  <si>
+    <t>pag. 1 / linia 14 &amp; 15</t>
+  </si>
+  <si>
+    <t>Nu se specifica ce campuri pot fi actualizate pentru fiecare entitate.</t>
+  </si>
+  <si>
     <t>Effort to review document (hours):</t>
   </si>
   <si>
-    <t>Author Name:</t>
+    <t>Review Form. Architectural Design Defects</t>
+  </si>
+  <si>
+    <t>Architectural Design Document</t>
   </si>
   <si>
     <t xml:space="preserve">Author Name: </t>
   </si>
   <si>
+    <t>Georgescu Anca</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>model/validate..</t>
+  </si>
+  <si>
+    <t>Validarile sunt incluse in clasele de model, primind ca argument o eroare anterioara la care se adauga noi erori. Arhitectural, ar trebui sa existe o clasa separata care sa valideze modelele din anumite puncte de vedere, si sa nu primeasca eroarea precedenta ca parametru.</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>service/repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InventoryRepository si InventoryService ar trebui sa fie impartite in clase responsabile cu gestionarea unei singure entitati (una pentru Product si una pentru Part). </t>
+  </si>
+  <si>
+    <t>controller/fiecare controller</t>
+  </si>
+  <si>
+    <t>Metoda displayScene este implementata in fiecare Controller, iar codul este acelasi. Aceasta poate fi scoasa intr-o clasa BaseController pe care fiecare controller sa o mosteneasca (pentru a evita codul duplicat)</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>prin extinderea clasei BaseController de catre fiecare controller acum am putut muta atat parametrii comuni (stage, scene) pentru a elimina codul duplicat</t>
+  </si>
+  <si>
+    <t>Review Form. Coding Defects</t>
+  </si>
+  <si>
+    <t>Coding Document</t>
+  </si>
+  <si>
     <t>Popescu Ionel</t>
   </si>
   <si>
-    <t>Georgescu Anca</t>
-  </si>
-  <si>
-    <t>Firicescu George</t>
-  </si>
-  <si>
-    <t>Requirements Document</t>
-  </si>
-  <si>
-    <t>Architectural Design Document</t>
-  </si>
-  <si>
-    <t>Coding Document</t>
-  </si>
-  <si>
-    <t>Review Form. Coding Defects</t>
-  </si>
-  <si>
-    <t>Review Form. Architectural Design Defects</t>
-  </si>
-  <si>
-    <t>Review Form. Requirements Defects</t>
-  </si>
-  <si>
-    <t>Student 1:</t>
-  </si>
-  <si>
-    <t>Student 2:</t>
-  </si>
-  <si>
-    <t>Student 3:</t>
-  </si>
-  <si>
-    <t>Echipa</t>
-  </si>
-  <si>
-    <t>Grupa</t>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>product validator</t>
+  </si>
+  <si>
+    <t>Pentru conditia min &lt; 0 se adauga eroarea: "The inventory level must be greater than 0. ", Dar in acesrt caz min poate fi si 0.</t>
+  </si>
+  <si>
+    <t>Product.java / 61</t>
+  </si>
+  <si>
+    <t>In setter se face confuzia de atribuire: "associatedParts = associatedParts;" in conditile in care ar trebui sa fie "this.associatedParts = associatedParts;"</t>
+  </si>
+  <si>
+    <t>MainScreenController.java / 215</t>
+  </si>
+  <si>
+    <t>Daca niciun produs nu e selectat, modifyProductIndex este -1 iar indexOf arunca o exceptie la care nu se face handle.</t>
+  </si>
+  <si>
+    <t>InventoryRepository.java / 24, 76, 129</t>
+  </si>
+  <si>
+    <t>Daca fisierul dat in atributul "filename" nu exista, programul va arunca NullPointerException pe aceasta linia si nu va ajunge in blocul try-catch unde este tratata exceptia FileNotFoundException</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>InventoryRepository.java / 26, 78, 132</t>
+  </si>
+  <si>
+    <t>la apelul new File(classLoader.getResource(filename).getFile()) nu se returneaza un fisier valid, fiind aruncata eroarea FileNotFoundException la crearea de FileReader + am adaugat try-with-close pentru variabilele Closable</t>
+  </si>
+  <si>
+    <t>Tool-based Code Analysis</t>
   </si>
   <si>
     <t>Tool used:</t>
   </si>
   <si>
+    <t>SonarLint</t>
+  </si>
+  <si>
+    <t>File, Line</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
     <t>Before</t>
   </si>
   <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>File, Line</t>
-  </si>
-  <si>
     <t>After/Argument</t>
   </si>
   <si>
-    <t>Numele si prenumele</t>
-  </si>
-  <si>
-    <t>Tool-based Code Analysis</t>
+    <t>AddPartController.java/27</t>
+  </si>
+  <si>
+    <t>Methods should not be empty</t>
+  </si>
+  <si>
+    <t>public AddPartController(){}</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>AddPartController.java/63</t>
+  </si>
+  <si>
+    <t>Constructors should not be used to instantiate "String", "BigInteger", "BigDecimal" and primitive-wrapper classes</t>
+  </si>
+  <si>
+    <t>private String errorMessage = new String();</t>
+  </si>
+  <si>
+    <t>private String errorMessage = "";</t>
+  </si>
+  <si>
+    <t>AddPartController.java/64</t>
+  </si>
+  <si>
+    <t>Unused "private" fields should be removed</t>
+  </si>
+  <si>
+    <t>private int partId;</t>
+  </si>
+  <si>
+    <t>AddPartController.java/65</t>
+  </si>
+  <si>
+    <t>Sections of code should not be commented out</t>
+  </si>
+  <si>
+    <t>//scene = FXMLLoader.load(getClass().getResource(source));</t>
+  </si>
+  <si>
+    <t>AddPartController.java/66</t>
+  </si>
+  <si>
+    <t>Optional value should only be accessed after calling isPresent()</t>
+  </si>
+  <si>
+    <t>if(result.get() == ButtonType.OK)</t>
+  </si>
+  <si>
+    <t>if(result.isPresent() &amp;&amp; result.get() == ButtonType.OK)</t>
+  </si>
+  <si>
+    <t>InvetoryRepository.java/41</t>
+  </si>
+  <si>
+    <t>Catches should be combined</t>
+  </si>
+  <si>
+    <t>catch (FileNotFoundException | URISyntaxException e) {
+			e.printStackTrace();
+		} catch (IOException e) {
+			e.printStackTrace();
+		}</t>
+  </si>
+  <si>
+    <t>catch (URISyntaxException | IOException e) {
+			e.printStackTrace();
+		}</t>
+  </si>
+  <si>
+    <t>AddPartController.java/135</t>
+  </si>
+  <si>
+    <t>Boolean literals should not be redundant</t>
+  </si>
+  <si>
+    <t>if(isOutsourced == true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if(isOutsourced)</t>
+  </si>
+  <si>
+    <t>AddProductController.java/10,12,13,17</t>
+  </si>
+  <si>
+    <t>Unnecessary imports should be removed</t>
+  </si>
+  <si>
+    <t>import javafx.scene.Parent;
+import javafx.scene.Scene;
+import javafx.fxml.FXMLLoader;</t>
+  </si>
+  <si>
+    <t>AddProductController.java/79</t>
+  </si>
+  <si>
+    <t>public AddProductController()</t>
+  </si>
+  <si>
+    <t>AddProductController.java/25</t>
+  </si>
+  <si>
+    <t>AddProductController.java/26</t>
+  </si>
+  <si>
+    <t>private int productId;</t>
+  </si>
+  <si>
+    <t>AddProductController.java/124</t>
+  </si>
+  <si>
+    <t>result.get() == ButtonType.OK</t>
+  </si>
+  <si>
+    <t>result.isPresent() &amp;&amp; result.get() == ButtonType.OK</t>
+  </si>
+  <si>
+    <t>AddProductController.java/146</t>
+  </si>
+  <si>
+    <t>Private fields only used as local variables in methods should become local variables</t>
+  </si>
+  <si>
+    <t>private String errorMessage;</t>
+  </si>
+  <si>
+    <t>BaseController.java/16</t>
+  </si>
+  <si>
+    <t>private Stage stage;</t>
+  </si>
+  <si>
+    <t>BaseController.java/17</t>
+  </si>
+  <si>
+    <t>private Parent scene;</t>
+  </si>
+  <si>
+    <t>Invetory.java/52</t>
+  </si>
+  <si>
+    <t>if(isFound == false)</t>
+  </si>
+  <si>
+    <t>if(!isFound)</t>
+  </si>
+  <si>
+    <t>Invetory.java/53</t>
+  </si>
+  <si>
+    <t>Local variables should not be declared and then immediately returned or thrown</t>
+  </si>
+  <si>
+    <t>Product product = new Product(0, null, 0.0, 0, 0, 0, null);
+            return product;</t>
+  </si>
+  <si>
+    <t>return new Product(0, null, 0.0, 0, 0, 0, null);</t>
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours):</t>
@@ -121,21 +423,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,76 +588,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -374,6 +668,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -422,7 +719,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,9 +752,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,6 +804,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -665,182 +996,315 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.41796875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="21" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="17"/>
+      <c r="B2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="J2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="16">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="16">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="16">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="17"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17"/>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.9">
+      <c r="A10" s="17"/>
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="H5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="3">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="60">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="3">
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="60">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="3">
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="30">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="3">
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" ht="45">
+      <c r="A14" s="17"/>
+      <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="3">
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" ht="30">
+      <c r="A15" s="17"/>
+      <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="3">
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="3">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="2:5" ht="15">
+      <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -848,86 +1312,90 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="3">
+    <row r="18" spans="2:5">
+      <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="3">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="3">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="3">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="3">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="3">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="3">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="3">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="13"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="17"/>
+      <c r="C27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="11"/>
       <c r="E27" s="1"/>
     </row>
   </sheetData>
@@ -945,181 +1413,302 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="22.05078125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="54" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="22" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="17"/>
+      <c r="B2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="23" t="s">
+      <c r="J2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="16">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="16">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="16">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="17"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17"/>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="H5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="9" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="75">
+      <c r="A10" s="17"/>
+      <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="3">
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="60">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="3">
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="60">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="3">
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="45">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="3">
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="17"/>
+      <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="3">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="17"/>
+      <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="3">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="3">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1127,8 +1716,8 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="3">
+    <row r="18" spans="2:5">
+      <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1136,8 +1725,8 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="3">
+    <row r="19" spans="2:5">
+      <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1145,8 +1734,8 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="3">
+    <row r="20" spans="2:5">
+      <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1154,8 +1743,8 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="3">
+    <row r="21" spans="2:5">
+      <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1163,8 +1752,8 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="3">
+    <row r="22" spans="2:5">
+      <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1172,8 +1761,8 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="3">
+    <row r="23" spans="2:5">
+      <c r="B23" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1181,8 +1770,8 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="3">
+    <row r="24" spans="2:5">
+      <c r="B24" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1190,8 +1779,8 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="3">
+    <row r="25" spans="2:5">
+      <c r="B25" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1199,8 +1788,8 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="3">
+    <row r="26" spans="2:5">
+      <c r="B26" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1208,14 +1797,18 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="13"/>
+    <row r="27" spans="2:5">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="17"/>
+      <c r="C28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="11"/>
       <c r="E28" s="1"/>
     </row>
   </sheetData>
@@ -1233,182 +1826,308 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="26.7109375" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="17"/>
+      <c r="B2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="23" t="s">
+      <c r="J2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="16">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="16">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="16">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="17"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17"/>
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="H5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="9" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="45">
+      <c r="A10" s="17"/>
+      <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="3">
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="60">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="3">
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="45">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="3">
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="75">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="3">
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" ht="105">
+      <c r="A14" s="17"/>
+      <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="3">
+      <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="17"/>
+      <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="3">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="3">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1416,8 +2135,8 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="3">
+    <row r="18" spans="2:5">
+      <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1425,8 +2144,8 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="3">
+    <row r="19" spans="2:5">
+      <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1434,8 +2153,8 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="3">
+    <row r="20" spans="2:5">
+      <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1443,8 +2162,8 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="3">
+    <row r="21" spans="2:5">
+      <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1452,8 +2171,8 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="3">
+    <row r="22" spans="2:5">
+      <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1461,8 +2180,8 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="3">
+    <row r="23" spans="2:5">
+      <c r="B23" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1470,8 +2189,8 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="3">
+    <row r="24" spans="2:5">
+      <c r="B24" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1479,8 +2198,8 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="3">
+    <row r="25" spans="2:5">
+      <c r="B25" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1488,8 +2207,8 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="3">
+    <row r="26" spans="2:5">
+      <c r="B26" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1497,8 +2216,8 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="3">
+    <row r="27" spans="2:5">
+      <c r="B27" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1506,8 +2225,8 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="3">
+    <row r="28" spans="2:5">
+      <c r="B28" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1515,8 +2234,8 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="3">
+    <row r="29" spans="2:5">
+      <c r="B29" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1524,8 +2243,8 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="3">
+    <row r="30" spans="2:5">
+      <c r="B30" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1533,14 +2252,18 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="13"/>
+    <row r="31" spans="2:5">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="17"/>
+      <c r="C32" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="11"/>
       <c r="E32" s="1"/>
     </row>
   </sheetData>
@@ -1558,292 +2281,519 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.9453125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.62890625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="5" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="26.7109375" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="17"/>
+      <c r="B2" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="H5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="J2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="16">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="16">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="16">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="17"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17"/>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="30">
+      <c r="A10" s="17"/>
+      <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="3">
+      <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="45">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="3">
+      <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="3">
+      <c r="C12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="60">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="3">
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" ht="60">
+      <c r="A14" s="17"/>
+      <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="3">
+      <c r="C14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" ht="105">
+      <c r="A15" s="17"/>
+      <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="3">
+      <c r="C15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" ht="45">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="3">
+      <c r="C16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="2:6" ht="90">
+      <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="3">
+      <c r="C17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30">
+      <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="3">
+      <c r="C18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="45">
+      <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="3">
+      <c r="C19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="45">
+      <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="3">
+      <c r="C20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="45">
+      <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="3">
+      <c r="C21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="45">
+      <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="3">
+      <c r="C22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="90">
+      <c r="B23" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="3">
+      <c r="C23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="90">
+      <c r="B24" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="3">
+      <c r="C24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="90">
+      <c r="B25" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="3">
+      <c r="C25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15">
+      <c r="B26" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="3">
+      <c r="C26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="75">
+      <c r="B27" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="3">
+      <c r="C27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15">
+      <c r="B28" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1852,8 +2802,8 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="3">
+    <row r="29" spans="2:6">
+      <c r="B29" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1862,8 +2812,8 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="3">
+    <row r="30" spans="2:6">
+      <c r="B30" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1872,16 +2822,21 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="19"/>
+    <row r="31" spans="2:6">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="17"/>
+      <c r="C32" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Desktop\Facultate\An 3 Semestrul 2\VVSS\mrir2562\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubb\An3Sem2\vvss\mrir2562\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{B51D9049-0096-4D97-85B6-1E38FF02C6D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{042A7A63-0840-4611-8F1E-873799059DBB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6755DD71-CF05-4020-99B3-38F1AAB589BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="123">
   <si>
     <t>do not print this form</t>
   </si>
@@ -124,12 +124,6 @@
   </si>
   <si>
     <t>Nu se specifica comportamentul in cazurile de field-uri invalide (ex. denumire vida, nrBucati de tip string invalid:"asdf", etc). Sol: Arunca eroare cu mesajul campului gresit</t>
-  </si>
-  <si>
-    <t>pag. 1 / linia 17 &amp; 18</t>
-  </si>
-  <si>
-    <t>Nu se specifica in functie de ce camp se va stergerea unui produs/piesa.</t>
   </si>
   <si>
     <t>RO7</t>
@@ -424,7 +418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1002,11 +996,11 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="5"/>
     <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
@@ -1019,7 +1013,7 @@
     <col min="11" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1035,7 +1029,7 @@
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="22" t="s">
         <v>2</v>
@@ -1053,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1071,7 +1065,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="12" t="s">
@@ -1093,7 +1087,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="12" t="s">
@@ -1115,7 +1109,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
@@ -1129,7 +1123,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="8" t="s">
@@ -1143,7 +1137,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="9" t="s">
         <v>17</v>
@@ -1163,7 +1157,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="28.9">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="16">
         <v>1</v>
@@ -1183,7 +1177,7 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="60">
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="16">
         <f>B10+1</f>
@@ -1204,7 +1198,7 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="60">
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="16">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
@@ -1225,17 +1219,17 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="30">
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
@@ -1246,17 +1240,17 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="45">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>33</v>
@@ -1267,20 +1261,11 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="30">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -1288,7 +1273,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="16">
         <f t="shared" si="0"/>
@@ -1303,7 +1288,7 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="2:5" ht="15">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1312,7 +1297,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1321,7 +1306,7 @@
       <c r="D18" s="16"/>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1330,7 +1315,7 @@
       <c r="D19" s="16"/>
       <c r="E19" s="18"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1339,7 +1324,7 @@
       <c r="D20" s="16"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1348,7 +1333,7 @@
       <c r="D21" s="16"/>
       <c r="E21" s="18"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1357,7 +1342,7 @@
       <c r="D22" s="16"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1366,7 +1351,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="18"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1375,7 +1360,7 @@
       <c r="D24" s="16"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1384,16 +1369,16 @@
       <c r="D25" s="16"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
       <c r="C27" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="1"/>
@@ -1423,7 +1408,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="5"/>
     <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
@@ -1435,7 +1420,7 @@
     <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1451,10 +1436,10 @@
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -1469,7 +1454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1487,14 +1472,14 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="17"/>
@@ -1509,14 +1494,14 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="17"/>
@@ -1531,7 +1516,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
@@ -1545,7 +1530,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="8" t="s">
@@ -1559,7 +1544,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="9" t="s">
         <v>17</v>
@@ -1579,19 +1564,19 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="75">
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="16">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -1599,20 +1584,20 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="60">
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="16">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -1620,20 +1605,20 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="60">
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="16">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -1641,20 +1626,20 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="45">
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -1662,7 +1647,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="16">
         <f t="shared" si="0"/>
@@ -1677,7 +1662,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="16">
         <f t="shared" si="0"/>
@@ -1692,7 +1677,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="16">
         <f t="shared" si="0"/>
@@ -1707,7 +1692,7 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1716,7 +1701,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1725,7 +1710,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1734,7 +1719,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1743,7 +1728,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1752,7 +1737,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1761,7 +1746,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1770,7 +1755,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1779,7 +1764,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1788,7 +1773,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1797,16 +1782,16 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
       <c r="C28" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="1"/>
@@ -1832,11 +1817,11 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="5"/>
     <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
@@ -1848,7 +1833,7 @@
     <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1864,10 +1849,10 @@
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -1882,7 +1867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1900,14 +1885,14 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="17"/>
@@ -1922,14 +1907,14 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="17"/>
@@ -1944,7 +1929,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
@@ -1958,7 +1943,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="8" t="s">
@@ -1972,7 +1957,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="9" t="s">
         <v>17</v>
@@ -1992,19 +1977,19 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="45">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="16">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -2012,20 +1997,20 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="60">
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="16">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -2033,20 +2018,20 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="45">
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="16">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -2054,20 +2039,20 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="75">
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -2075,20 +2060,20 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="105">
+    <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -2096,7 +2081,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="16">
         <f t="shared" si="0"/>
@@ -2111,7 +2096,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="16">
         <f t="shared" si="0"/>
@@ -2126,7 +2111,7 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2135,7 +2120,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2144,7 +2129,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2153,7 +2138,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2162,7 +2147,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2171,7 +2156,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2180,7 +2165,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2189,7 +2174,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2198,7 +2183,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2207,7 +2192,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2216,7 +2201,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2225,7 +2210,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2234,7 +2219,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2243,7 +2228,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2252,16 +2237,16 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="19"/>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="17"/>
       <c r="C32" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="1"/>
@@ -2291,7 +2276,7 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="5"/>
     <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
@@ -2304,7 +2289,7 @@
     <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2320,10 +2305,10 @@
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -2338,7 +2323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -2356,14 +2341,14 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="17"/>
@@ -2378,7 +2363,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="8" t="s">
@@ -2398,7 +2383,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
@@ -2412,387 +2397,387 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="30">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="16">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="45">
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="16">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="16">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="60">
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="60">
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="105">
+    <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="45">
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="2:6" ht="90">
+    <row r="17" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="30">
-      <c r="B18" s="16">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="E19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B21" s="16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B22" s="16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B23" s="16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="45">
-      <c r="B19" s="16">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="45">
-      <c r="B20" s="16">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="45">
-      <c r="B21" s="16">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="2" t="s">
+    </row>
+    <row r="24" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B24" s="16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" ht="45">
-      <c r="B22" s="16">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B25" s="16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" ht="90">
-      <c r="B23" s="16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="90">
-      <c r="B24" s="16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="90">
-      <c r="B25" s="16">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="F25" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="16">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="D26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="15">
-      <c r="B26" s="16">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="2" t="s">
+    </row>
+    <row r="27" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B27" s="16">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" ht="75">
-      <c r="B27" s="16">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="15">
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2802,7 +2787,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2812,7 +2797,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2822,17 +2807,17 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="19"/>
       <c r="F31" s="17"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="17"/>
       <c r="C32" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
